--- a/results/mp/logistic/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -91,85 +82,82 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
@@ -536,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5945945945945946</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,28 +743,28 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5882352941176471</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>110</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -805,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5526315789473685</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -823,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.875</v>
@@ -855,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.417989417989418</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C8">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3856589147286822</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C9">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D9">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2533333333333334</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,169 +961,97 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L11">
+        <v>65</v>
+      </c>
+      <c r="M11">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7890625</v>
+      </c>
+      <c r="L12">
+        <v>101</v>
+      </c>
+      <c r="M12">
+        <v>101</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>27</v>
       </c>
-      <c r="K10">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1812080536912752</v>
-      </c>
-      <c r="C11">
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>122</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.7924528301886793</v>
-      </c>
-      <c r="L11">
-        <v>84</v>
-      </c>
-      <c r="M11">
-        <v>84</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.07539682539682539</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>233</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.775</v>
-      </c>
-      <c r="L12">
-        <v>124</v>
-      </c>
-      <c r="M12">
-        <v>124</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.00676328502415459</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>0.09</v>
-      </c>
-      <c r="F13">
-        <v>0.91</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3084</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7682926829268293</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1173,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7605633802816901</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1199,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1225,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1251,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1277,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1303,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1329,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1355,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1381,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1407,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.66</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1433,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1459,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1485,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6205882352941177</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1511,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5857740585774058</v>
+        <v>0.55</v>
       </c>
       <c r="L28">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1537,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5830508474576271</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L29">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M29">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1563,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5425531914893617</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1589,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1615,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5168539325842697</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1641,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1667,47 +1583,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4878048780487805</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4117647058823529</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1719,59 +1635,33 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>53</v>
-      </c>
-      <c r="K36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37">
-        <v>0.3287671232876712</v>
-      </c>
-      <c r="L37">
-        <v>24</v>
-      </c>
-      <c r="M37">
-        <v>24</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
